--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80212168-3156-4B41-A23A-61CBCDED2745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94043065-1423-49F2-95D9-8AFA6CBBDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Number Rolled</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Start: Fall 21 (9/18/21)</t>
+  </si>
+  <si>
+    <t>Portent:</t>
   </si>
 </sst>
 </file>
@@ -314,26 +317,41 @@
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,26 +953,41 @@
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,13 +2299,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -2302,15 +2335,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2640,18 +2673,20 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
     <col min="18" max="18" width="17.77734375" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2661,11 +2696,20 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2675,10 +2719,16 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
       <c r="S2" s="1"/>
+      <c r="T2">
+        <f>S2/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2688,10 +2738,16 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
       <c r="S3" s="1"/>
+      <c r="T3">
+        <f>S3/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2701,10 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
       <c r="S4" s="1"/>
+      <c r="T4">
+        <f>S4/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2714,10 +2776,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
       <c r="S5" s="1"/>
+      <c r="T5">
+        <f>S5/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2726,56 +2794,84 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1">
+        <v>5</v>
+      </c>
       <c r="S6" s="1"/>
+      <c r="T6">
+        <f>S6/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7">
+        <f>S7/S22</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="R8" s="1">
+        <v>7</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>S8/S22</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1">
+        <v>8</v>
+      </c>
       <c r="S9" s="1"/>
+      <c r="T9">
+        <f>S9/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2784,54 +2880,82 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1">
+        <v>9</v>
+      </c>
       <c r="S10" s="1"/>
+      <c r="T10">
+        <f>S10/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>22.222222222222221</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
       <c r="S11" s="1"/>
+      <c r="T11">
+        <f>S11/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12">
+        <f>S12/S22</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1">
+        <v>12</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13">
+        <f>S13/S22</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2841,10 +2965,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1">
+        <v>13</v>
+      </c>
       <c r="S14" s="1"/>
+      <c r="T14">
+        <f>S14/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2854,21 +2984,35 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="1">
+        <v>14</v>
+      </c>
       <c r="S15" s="1"/>
+      <c r="T15">
+        <f>S15/S22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16">
+        <f>S16/S22</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -2880,8 +3024,14 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="1">
+        <v>16</v>
+      </c>
       <c r="S17" s="1"/>
+      <c r="T17">
+        <f>S17/S22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -2892,24 +3042,38 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1">
+        <v>17</v>
+      </c>
       <c r="S18" s="1"/>
+      <c r="T18">
+        <f>S18/S22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1">
+        <v>18</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19">
+        <f>S19/S22</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
       <c r="V19" t="s">
         <v>1</v>
       </c>
@@ -2923,26 +3087,40 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1">
+        <v>19</v>
+      </c>
       <c r="S20" s="1"/>
+      <c r="T20">
+        <f>S20/S22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="R21" s="1">
+        <v>20</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <f>S21/S22</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2950,7 +3128,11 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <f>SUM(S2:S21)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2962,11 +3144,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>66.666666666666657</v>
+        <v>52.631578947368418</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -2975,11 +3157,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>33.333333333333329</v>
+        <v>47.368421052631575</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94043065-1423-49F2-95D9-8AFA6CBBDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E515443-9B93-4E2A-B31A-ABE60D7E589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -314,44 +314,62 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,44 +968,62 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2713,10 +2749,12 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>0</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2732,10 +2770,12 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>0</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2751,10 +2791,12 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>0</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2770,10 +2812,12 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>0</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2790,11 +2834,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2811,11 +2855,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2836,7 +2880,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>10.526315789473683</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2855,11 +2899,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>10.526315789473683</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2876,11 +2920,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2901,7 +2945,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>15.789473684210526</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2918,11 +2962,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2939,11 +2983,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -2959,10 +3003,12 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>0</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -2998,11 +3044,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3018,10 +3064,12 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>0</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3038,11 +3086,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3063,7 +3111,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>10.526315789473683</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3083,11 +3131,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3104,11 +3152,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>10.526315789473683</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3128,7 +3176,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3144,11 +3192,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>52.631578947368418</v>
+        <v>51.219512195121951</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3157,11 +3205,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>47.368421052631575</v>
+        <v>48.780487804878035</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E515443-9B93-4E2A-B31A-ABE60D7E589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4116610B-8BF7-4A4E-9CA9-E78AA4AAB4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -315,28 +315,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -348,22 +348,25 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
@@ -969,28 +972,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -1002,22 +1005,25 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
@@ -2708,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2750,20 +2756,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
       <c r="T2">
         <f>S2/S22</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2771,11 +2779,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2792,11 +2800,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>2.4390243902439024</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2813,20 +2821,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>2.4390243902439024</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
         <v>4</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
       <c r="T5">
         <f>S5/S22</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2838,7 +2848,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>7.3170731707317067</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2855,11 +2865,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2876,11 +2886,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2891,7 +2901,7 @@
       </c>
       <c r="T8">
         <f>S8/S22</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2899,11 +2909,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>7.3170731707317067</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2924,7 +2934,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2945,7 +2955,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>7.3170731707317067</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2966,7 +2976,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.7560975609756095</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2983,20 +2993,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>9.2307692307692317</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
         <v>12</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
       <c r="T13">
         <f>S13/S22</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -3008,7 +3020,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>2.4390243902439024</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3024,10 +3036,12 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>0</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3048,7 +3062,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3065,11 +3079,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>2.4390243902439024</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3086,20 +3100,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>7.3170731707317067</v>
+        <v>12.307692307692308</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
         <v>17</v>
       </c>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
       <c r="T18">
         <f>S18/S22</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3107,11 +3123,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3135,7 +3151,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>4.8780487804878048</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3156,7 +3172,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>7.3170731707317067</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3167,7 +3183,7 @@
       </c>
       <c r="T21">
         <f>S21/S22</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3176,11 +3192,11 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3192,11 +3208,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>51.219512195121951</v>
+        <v>49.230769230769234</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3205,11 +3221,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>48.780487804878035</v>
+        <v>50.769230769230774</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4116610B-8BF7-4A4E-9CA9-E78AA4AAB4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E35D052-52B6-4CB5-910B-00B88FD9C7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -315,13 +315,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -351,7 +351,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -360,7 +360,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8</c:v>
@@ -372,7 +372,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,13 +972,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -1008,7 +1008,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -1017,7 +1017,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8</c:v>
@@ -1029,7 +1029,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2756,11 +2756,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>6.8493150684931505</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="T2">
         <f>S2/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2779,20 +2779,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>5.4794520547945202</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>2</v>
       </c>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
       <c r="T3">
         <f>S3/S22</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -2800,11 +2802,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2825,7 +2827,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2836,7 +2838,7 @@
       </c>
       <c r="T5">
         <f>S5/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2848,7 +2850,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2869,7 +2871,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>6.1538461538461542</v>
+        <v>5.4794520547945202</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2890,7 +2892,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>7.6923076923076925</v>
+        <v>6.8493150684931505</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2901,7 +2903,7 @@
       </c>
       <c r="T8">
         <f>S8/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2913,7 +2915,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>6.1538461538461542</v>
+        <v>5.4794520547945202</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2934,7 +2936,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>2.7397260273972601</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2955,7 +2957,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2976,7 +2978,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>6.1538461538461542</v>
+        <v>5.4794520547945202</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2997,7 +2999,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>9.2307692307692317</v>
+        <v>8.2191780821917799</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -3008,7 +3010,7 @@
       </c>
       <c r="T13">
         <f>S13/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -3016,11 +3018,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>1.5384615384615385</v>
+        <v>2.7397260273972601</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3041,7 +3043,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>2.7397260273972601</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3062,7 +3064,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>2.7397260273972601</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3079,20 +3081,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>5.4794520547945202</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
         <v>16</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
       <c r="T17">
         <f>S17/S22</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3104,7 +3108,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>12.307692307692308</v>
+        <v>10.95890410958904</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3115,7 +3119,7 @@
       </c>
       <c r="T18">
         <f>S18/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3127,7 +3131,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3151,7 +3155,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>2.7397260273972601</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3168,11 +3172,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>5.4794520547945202</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3183,7 +3187,7 @@
       </c>
       <c r="T21">
         <f>S21/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3192,11 +3196,11 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3208,11 +3212,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>49.230769230769234</v>
+        <v>49.315068493150683</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3221,11 +3225,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>50.769230769230774</v>
+        <v>50.68493150684931</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E35D052-52B6-4CB5-910B-00B88FD9C7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF80EA-F937-4AC9-9021-6B48A711CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -330,7 +330,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -345,19 +345,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
@@ -369,7 +369,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
@@ -987,7 +987,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -1002,19 +1002,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
@@ -1026,7 +1026,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>6.8493150684931505</v>
+        <v>6.3291139240506329</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>5.4794520547945202</v>
+        <v>5.0632911392405067</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.10958904109589</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.10958904109589</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.10958904109589</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2867,11 +2867,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>5.4794520547945202</v>
+        <v>6.3291139240506329</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>6.8493150684931505</v>
+        <v>6.3291139240506329</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>5.4794520547945202</v>
+        <v>5.0632911392405067</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>2.7397260273972601</v>
+        <v>2.5316455696202533</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.10958904109589</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2974,11 +2974,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>5.4794520547945202</v>
+        <v>6.3291139240506329</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2995,11 +2995,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>8.2191780821917799</v>
+        <v>8.8607594936708853</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>2.7397260273972601</v>
+        <v>2.5316455696202533</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3039,11 +3039,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>2.7397260273972601</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3060,11 +3060,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>2.7397260273972601</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.4794520547945202</v>
+        <v>5.0632911392405067</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>10.95890410958904</v>
+        <v>10.126582278481013</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.10958904109589</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3151,11 +3151,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>2.7397260273972601</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>5.4794520547945202</v>
+        <v>5.0632911392405067</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3212,11 +3212,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>49.315068493150683</v>
+        <v>46.835443037974677</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3225,11 +3225,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>50.68493150684931</v>
+        <v>53.164556962025316</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF80EA-F937-4AC9-9021-6B48A711CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D9249-4BD9-43DB-A64E-BDD1E9E7F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -318,25 +318,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -348,7 +348,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -360,13 +360,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
@@ -975,25 +975,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -1005,7 +1005,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -1017,13 +1017,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
@@ -2714,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>6.3291139240506329</v>
+        <v>5.6179775280898872</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="T2">
         <f>S2/S22</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2779,22 +2779,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>5.0632911392405067</v>
+        <v>5.6179775280898872</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>2</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <f>S3/S22</f>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2823,11 +2823,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="T5">
         <f>S5/S22</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2867,11 +2867,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>6.3291139240506329</v>
+        <v>7.8651685393258424</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>6.3291139240506329</v>
+        <v>5.6179775280898872</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="T8">
         <f>S8/S22</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2911,11 +2911,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>5.0632911392405067</v>
+        <v>5.6179775280898872</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>2.5316455696202533</v>
+        <v>2.2471910112359552</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>6.3291139240506329</v>
+        <v>5.6179775280898872</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2995,11 +2995,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>8.8607594936708853</v>
+        <v>8.9887640449438209</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="T13">
         <f>S13/S22</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>2.5316455696202533</v>
+        <v>2.2471910112359552</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3081,11 +3081,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.0632911392405067</v>
+        <v>6.7415730337078648</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="T17">
         <f>S17/S22</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3104,22 +3104,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>10.126582278481013</v>
+        <v>10.112359550561797</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
         <v>17</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <f>S18/S22</f>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3127,11 +3127,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.79746835443038</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>5.0632911392405067</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="T21">
         <f>S21/S22</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3196,11 +3196,11 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3212,11 +3212,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>46.835443037974677</v>
+        <v>47.19101123595506</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3225,11 +3225,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>53.164556962025316</v>
+        <v>52.808988764044948</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D9249-4BD9-43DB-A64E-BDD1E9E7F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DD859-FB1B-469C-8C4A-FB22FB183B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -321,7 +321,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -345,16 +345,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -366,13 +366,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +978,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -1002,16 +1002,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -1023,13 +1023,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>5.6179775280898872</v>
+        <v>5.1546391752577314</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="T2">
         <f>S2/S22</f>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>5.6179775280898872</v>
+        <v>5.1546391752577314</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="T3">
         <f>S3/S22</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -2802,20 +2802,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>4.1237113402061851</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
       <c r="T4">
         <f>S4/S22</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -2827,18 +2829,18 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>4.1237113402061851</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <f>S5/S22</f>
-        <v>0.1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2850,7 +2852,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>3.0927835051546393</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2871,7 +2873,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>7.8651685393258424</v>
+        <v>7.216494845360824</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2892,7 +2894,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>5.6179775280898872</v>
+        <v>5.1546391752577314</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2903,7 +2905,7 @@
       </c>
       <c r="T8">
         <f>S8/S22</f>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2915,7 +2917,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>5.6179775280898872</v>
+        <v>5.1546391752577314</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2936,7 +2938,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>2.2471910112359552</v>
+        <v>2.0618556701030926</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2957,7 +2959,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>3.0927835051546393</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2974,11 +2976,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>5.6179775280898872</v>
+        <v>6.1855670103092786</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2995,11 +2997,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>8.9887640449438209</v>
+        <v>9.2783505154639183</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -3010,7 +3012,7 @@
       </c>
       <c r="T13">
         <f>S13/S22</f>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -3022,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>2.2471910112359552</v>
+        <v>2.0618556701030926</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3039,11 +3041,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>4.1237113402061851</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3064,7 +3066,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>3.0927835051546393</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3085,7 +3087,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>6.7415730337078648</v>
+        <v>6.1855670103092786</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3096,7 +3098,7 @@
       </c>
       <c r="T17">
         <f>S17/S22</f>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3108,7 +3110,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>10.112359550561797</v>
+        <v>9.2783505154639183</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3119,7 +3121,7 @@
       </c>
       <c r="T18">
         <f>S18/S22</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3127,11 +3129,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>6.1855670103092786</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3155,7 +3157,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>3.0927835051546393</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3172,11 +3174,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>6.1855670103092786</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3187,7 +3189,7 @@
       </c>
       <c r="T21">
         <f>S21/S22</f>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3196,11 +3198,11 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3212,11 +3214,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>47.19101123595506</v>
+        <v>44.329896907216487</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3225,11 +3227,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>52.808988764044948</v>
+        <v>55.670103092783506</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DD859-FB1B-469C-8C4A-FB22FB183B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19B6D6C-6451-424F-AD16-BE9BF9475CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -315,7 +315,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -327,7 +327,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -336,22 +336,22 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4</c:v>
@@ -363,10 +363,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
@@ -972,7 +972,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -984,7 +984,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -993,22 +993,22 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4</c:v>
@@ -1020,10 +1020,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2756,11 +2756,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>5.1546391752577314</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="T2">
         <f>S2/S22</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>5.1546391752577314</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="T3">
         <f>S3/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.1237113402061851</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="T4">
         <f>S4/S22</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.1237113402061851</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="T5">
         <f>S5/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2848,11 +2848,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.0927835051546393</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>7.216494845360824</v>
+        <v>6.3636363636363633</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>5.1546391752577314</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="T8">
         <f>S8/S22</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2913,11 +2913,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>5.1546391752577314</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2934,11 +2934,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>2.0618556701030926</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>3.0927835051546393</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2976,20 +2976,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>6.1855670103092786</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
         <v>11</v>
       </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
       <c r="T12">
         <f>S12/S22</f>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -3001,7 +3003,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>9.2783505154639183</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -3012,7 +3014,7 @@
       </c>
       <c r="T13">
         <f>S13/S22</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -3020,20 +3022,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>2.0618556701030926</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
         <v>13</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
       <c r="T14">
         <f>S14/S22</f>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -3045,7 +3049,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>4.1237113402061851</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3066,7 +3070,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>3.0927835051546393</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3087,7 +3091,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>6.1855670103092786</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3098,7 +3102,7 @@
       </c>
       <c r="T17">
         <f>S17/S22</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3106,11 +3110,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>9.2783505154639183</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3121,7 +3125,7 @@
       </c>
       <c r="T18">
         <f>S18/S22</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3129,11 +3133,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>6.1855670103092786</v>
+        <v>6.3636363636363633</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3157,7 +3161,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.0927835051546393</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3178,7 +3182,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>6.1855670103092786</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3189,7 +3193,7 @@
       </c>
       <c r="T21">
         <f>S21/S22</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3198,11 +3202,11 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3214,11 +3218,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>44.329896907216487</v>
+        <v>44.545454545454547</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3227,11 +3231,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>55.670103092783506</v>
+        <v>55.454545454545446</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19B6D6C-6451-424F-AD16-BE9BF9475CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9078E4-18A4-467B-95BD-653E867F4FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -318,16 +318,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -336,7 +336,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -345,34 +345,34 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,16 +975,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -993,7 +993,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -1002,34 +1002,34 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,18 +2760,18 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>5.4545454545454541</v>
+        <v>4.6875</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <f>S2/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2779,22 +2779,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>4.6875</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>2</v>
       </c>
       <c r="S3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <f>S3/S22</f>
-        <v>0.14285714285714285</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.6363636363636362</v>
+        <v>3.125</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="T4">
         <f>S4/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -2825,11 +2825,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>3.6363636363636362</v>
+        <v>3.90625</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="T5">
         <f>S5/S22</f>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2848,20 +2848,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.6363636363636362</v>
+        <v>3.90625</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
         <v>5</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
       <c r="T6">
         <f>S6/S22</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -2873,7 +2875,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>6.3636363636363633</v>
+        <v>5.46875</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
@@ -2894,7 +2896,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>3.90625</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2905,7 +2907,7 @@
       </c>
       <c r="T8">
         <f>S8/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2913,20 +2915,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>5.4545454545454541</v>
+        <v>5.46875</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
         <v>8</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
       <c r="T9">
         <f>S9/S22</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -2938,7 +2942,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>3.90625</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2959,7 +2963,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>2.7272727272727271</v>
+        <v>2.34375</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2976,11 +2980,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>8.1818181818181817</v>
+        <v>10.15625</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2991,7 +2995,7 @@
       </c>
       <c r="T12">
         <f>S12/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -3003,7 +3007,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>8.1818181818181817</v>
+        <v>7.03125</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -3014,7 +3018,7 @@
       </c>
       <c r="T13">
         <f>S13/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -3022,11 +3026,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.6363636363636362</v>
+        <v>3.90625</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3037,7 +3041,7 @@
       </c>
       <c r="T14">
         <f>S14/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -3045,11 +3049,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.6363636363636362</v>
+        <v>4.6875</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3066,11 +3070,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>2.7272727272727271</v>
+        <v>3.125</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3087,22 +3091,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.4545454545454541</v>
+        <v>6.25</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
         <v>16</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <f>S17/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3114,7 +3118,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>9.0909090909090917</v>
+        <v>7.8125</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3125,7 +3129,7 @@
       </c>
       <c r="T18">
         <f>S18/S22</f>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3133,11 +3137,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>6.3636363636363633</v>
+        <v>6.25</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3157,20 +3161,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>2.7272727272727271</v>
+        <v>3.125</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
         <v>19</v>
       </c>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
       <c r="T20">
         <f>S20/S22</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -3178,11 +3184,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>5.4545454545454541</v>
+        <v>6.25</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3193,7 +3199,7 @@
       </c>
       <c r="T21">
         <f>S21/S22</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3202,11 +3208,11 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3218,11 +3224,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>44.545454545454547</v>
+        <v>41.40625</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3231,11 +3237,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>55.454545454545446</v>
+        <v>58.59375</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
+++ b/DnData/D20/NJT/MYLUCK_21Camp_Zion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9078E4-18A4-467B-95BD-653E867F4FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466D848-A2FA-46AA-8349-6802B291225B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -723,7 +723,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (2)</a:t>
+              <a:t> (1)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
